--- a/assets/templates/participant_list_template.xlsx
+++ b/assets/templates/participant_list_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F793626F-E843-4A12-B967-497A5F5F8B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A6F8E4-8DFD-4D16-8691-231D587DACC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,10 @@
     <t>Nguyễn Văn A</t>
   </si>
   <si>
-    <t>Quê quán</t>
+    <t>Vĩnh Phúc</t>
   </si>
   <si>
-    <t>Vĩnh Phúc</t>
+    <t>Phòng ban</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -431,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
